--- a/Backend/processing data.xlsx
+++ b/Backend/processing data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D252"/>
+  <dimension ref="A1:C252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,20 +424,15 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>서울특별시 종로구</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
         <is>
           <t>127</t>
         </is>
@@ -446,20 +441,15 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>서울특별시 중구</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
         <is>
           <t>127</t>
         </is>
@@ -468,20 +458,15 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>서울특별시 용산구</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>용산구</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
         <is>
           <t>126</t>
         </is>
@@ -490,20 +475,15 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>서울특별시 성동구</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>성동구</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
         <is>
           <t>127</t>
         </is>
@@ -512,20 +492,15 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>서울특별시 광진구</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>광진구</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
         <is>
           <t>126</t>
         </is>
@@ -534,20 +509,15 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>서울특별시 동대문구</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>동대문구</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
         <is>
           <t>127</t>
         </is>
@@ -556,20 +526,15 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>서울특별시 중랑구</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>중랑구</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
         <is>
           <t>128</t>
         </is>
@@ -578,20 +543,15 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>서울특별시 성북구</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>성북구</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
         <is>
           <t>127</t>
         </is>
@@ -600,20 +560,15 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>서울특별시 강북구</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>강북구</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
         <is>
           <t>128</t>
         </is>
@@ -622,20 +577,15 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>서울특별시 도봉구</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>도봉구</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
         <is>
           <t>129</t>
         </is>
@@ -644,20 +594,15 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>서울특별시 노원구</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>노원구</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
         <is>
           <t>129</t>
         </is>
@@ -666,20 +611,15 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>서울특별시 은평구</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>은평구</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
         <is>
           <t>127</t>
         </is>
@@ -688,20 +628,15 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>서울특별시 서대문구</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>서대문구</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
         <is>
           <t>127</t>
         </is>
@@ -710,20 +645,15 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>서울특별시 마포구</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>마포구</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
         <is>
           <t>127</t>
         </is>
@@ -732,20 +662,15 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>서울특별시 양천구</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>양천구</t>
+          <t>58</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
         <is>
           <t>126</t>
         </is>
@@ -754,20 +679,15 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>서울특별시 강서구</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>강서구</t>
+          <t>58</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
         <is>
           <t>126</t>
         </is>
@@ -776,20 +696,15 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>서울특별시 구로구</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>구로구</t>
+          <t>58</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
         <is>
           <t>125</t>
         </is>
@@ -798,20 +713,15 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>서울특별시 금천구</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>금천구</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -820,20 +730,15 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>서울특별시 영등포구</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>영등포구</t>
+          <t>58</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
         <is>
           <t>126</t>
         </is>
@@ -842,20 +747,15 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>서울특별시 동작구</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>동작구</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
         <is>
           <t>125</t>
         </is>
@@ -864,20 +764,15 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>서울특별시 관악구</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>관악구</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
         <is>
           <t>125</t>
         </is>
@@ -886,20 +781,15 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>서울특별시 서초구</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>서초구</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
         <is>
           <t>125</t>
         </is>
@@ -908,20 +798,15 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>서울특별시 강남구</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>강남구</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
         <is>
           <t>126</t>
         </is>
@@ -930,20 +815,15 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>서울특별시 송파구</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>송파구</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
         <is>
           <t>126</t>
         </is>
@@ -952,20 +832,15 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>서울특별시 강동구</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>강동구</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
         <is>
           <t>126</t>
         </is>
@@ -974,20 +849,15 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>부산광역시 중구</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>97</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
         <is>
           <t>74</t>
         </is>
@@ -996,20 +866,15 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>부산광역시 서구</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>서구</t>
+          <t>97</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
         <is>
           <t>74</t>
         </is>
@@ -1018,20 +883,15 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>부산광역시 동구</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>동구</t>
+          <t>98</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
         <is>
           <t>75</t>
         </is>
@@ -1040,20 +900,15 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>부산광역시 영도구</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>영도구</t>
+          <t>98</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
         <is>
           <t>74</t>
         </is>
@@ -1062,20 +917,15 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>부산광역시 부산진구</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>부산진구</t>
+          <t>97</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
         <is>
           <t>75</t>
         </is>
@@ -1084,20 +934,15 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>부산광역시 동래구</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>동래구</t>
+          <t>98</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
         <is>
           <t>76</t>
         </is>
@@ -1106,20 +951,15 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>부산광역시 남구</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>남구</t>
+          <t>98</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
         <is>
           <t>75</t>
         </is>
@@ -1128,20 +968,15 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>부산광역시 북구</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>북구</t>
+          <t>96</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
         <is>
           <t>76</t>
         </is>
@@ -1150,20 +985,15 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>부산광역시 해운대구</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>해운대구</t>
+          <t>99</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
         <is>
           <t>75</t>
         </is>
@@ -1172,20 +1002,15 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>부산광역시 사하구</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>사하구</t>
+          <t>96</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
         <is>
           <t>74</t>
         </is>
@@ -1194,20 +1019,15 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>부산광역시 금정구</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>금정구</t>
+          <t>98</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
         <is>
           <t>77</t>
         </is>
@@ -1216,20 +1036,15 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>부산광역시 강서구</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>강서구</t>
+          <t>96</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
         <is>
           <t>76</t>
         </is>
@@ -1238,20 +1053,15 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>부산광역시 연제구</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>연제구</t>
+          <t>98</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
         <is>
           <t>76</t>
         </is>
@@ -1260,20 +1070,15 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>부산광역시 수영구</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>수영구</t>
+          <t>99</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
         <is>
           <t>75</t>
         </is>
@@ -1282,20 +1087,15 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>부산광역시 사상구</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>사상구</t>
+          <t>96</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
         <is>
           <t>75</t>
         </is>
@@ -1304,20 +1104,15 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>부산광역시 기장군</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>기장군</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
         <is>
           <t>77</t>
         </is>
@@ -1326,20 +1121,15 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>대구광역시</t>
+          <t>대구광역시 중구</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>89</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
         <is>
           <t>90</t>
         </is>
@@ -1348,20 +1138,15 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>대구광역시</t>
+          <t>대구광역시 동구</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>동구</t>
+          <t>90</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
         <is>
           <t>91</t>
         </is>
@@ -1370,20 +1155,15 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>대구광역시</t>
+          <t>대구광역시 서구</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>서구</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
         <is>
           <t>90</t>
         </is>
@@ -1392,20 +1172,15 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>대구광역시</t>
+          <t>대구광역시 남구</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>남구</t>
+          <t>89</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
         <is>
           <t>90</t>
         </is>
@@ -1414,20 +1189,15 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>대구광역시</t>
+          <t>대구광역시 북구</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>북구</t>
+          <t>89</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
         <is>
           <t>91</t>
         </is>
@@ -1436,20 +1206,15 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>대구광역시</t>
+          <t>대구광역시 수성구</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>수성구</t>
+          <t>89</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
         <is>
           <t>90</t>
         </is>
@@ -1458,20 +1223,15 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>대구광역시</t>
+          <t>대구광역시 달서구</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>달서구</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
         <is>
           <t>90</t>
         </is>
@@ -1480,20 +1240,15 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>대구광역시</t>
+          <t>대구광역시 달성군</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>달성군</t>
+          <t>86</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
         <is>
           <t>88</t>
         </is>
@@ -1502,20 +1257,15 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>대구광역시</t>
+          <t>대구광역시 군위군</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>군위군</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
         <is>
           <t>99</t>
         </is>
@@ -1524,20 +1274,15 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>인천광역시 중구</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
         <is>
           <t>125</t>
         </is>
@@ -1546,20 +1291,15 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>인천광역시 동구</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>동구</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
         <is>
           <t>125</t>
         </is>
@@ -1568,20 +1308,15 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>인천광역시 미추홀구</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>미추홀구</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -1590,20 +1325,15 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>인천광역시 연수구</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>연수구</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
         <is>
           <t>123</t>
         </is>
@@ -1612,20 +1342,15 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>인천광역시 남동구</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>남동구</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -1634,20 +1359,15 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>인천광역시 부평구</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>부평구</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
         <is>
           <t>125</t>
         </is>
@@ -1656,20 +1376,15 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>인천광역시 계양구</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>계양구</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
         <is>
           <t>126</t>
         </is>
@@ -1678,20 +1393,15 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>인천광역시 서구</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>서구</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
         <is>
           <t>126</t>
         </is>
@@ -1700,20 +1410,15 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>인천광역시 강화군</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>강화군</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
         <is>
           <t>130</t>
         </is>
@@ -1722,20 +1427,15 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>인천광역시 옹진군</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>옹진군</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -1744,20 +1444,15 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>광주광역시</t>
+          <t>광주광역시 동구</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>동구</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
         <is>
           <t>74</t>
         </is>
@@ -1766,20 +1461,15 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>광주광역시</t>
+          <t>광주광역시 서구</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>서구</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
         <is>
           <t>74</t>
         </is>
@@ -1788,20 +1478,15 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>광주광역시</t>
+          <t>광주광역시 남구</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>남구</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
         <is>
           <t>73</t>
         </is>
@@ -1810,20 +1495,15 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>광주광역시</t>
+          <t>광주광역시 북구</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>북구</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
         <is>
           <t>75</t>
         </is>
@@ -1832,20 +1512,15 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>광주광역시</t>
+          <t>광주광역시 광산구</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>광산구</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
         <is>
           <t>74</t>
         </is>
@@ -1854,20 +1529,15 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>대전광역시</t>
+          <t>대전광역시 동구</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>동구</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
         <is>
           <t>100</t>
         </is>
@@ -1876,20 +1546,15 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>대전광역시</t>
+          <t>대전광역시 중구</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
         <is>
           <t>100</t>
         </is>
@@ -1898,20 +1563,15 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>대전광역시</t>
+          <t>대전광역시 서구</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>서구</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
         <is>
           <t>100</t>
         </is>
@@ -1920,20 +1580,15 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>대전광역시</t>
+          <t>대전광역시 유성구</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>유성구</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
         <is>
           <t>101</t>
         </is>
@@ -1942,20 +1597,15 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>대전광역시</t>
+          <t>대전광역시 대덕구</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>대덕구</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
         <is>
           <t>100</t>
         </is>
@@ -1964,20 +1614,15 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>울산광역시</t>
+          <t>울산광역시 중구</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
         <is>
           <t>84</t>
         </is>
@@ -1986,20 +1631,15 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>울산광역시</t>
+          <t>울산광역시 남구</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>남구</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
         <is>
           <t>84</t>
         </is>
@@ -2008,20 +1648,15 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>울산광역시</t>
+          <t>울산광역시 동구</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>동구</t>
+          <t>104</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
         <is>
           <t>83</t>
         </is>
@@ -2030,20 +1665,15 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>울산광역시</t>
+          <t>울산광역시 북구</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>북구</t>
+          <t>103</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
-        <is>
-          <t>103</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
         <is>
           <t>85</t>
         </is>
@@ -2052,20 +1682,15 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>울산광역시</t>
+          <t>울산광역시 울주군</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>울주군</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
         <is>
           <t>84</t>
         </is>
@@ -2074,20 +1699,15 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>세종특별자치시</t>
+          <t>세종특별자치시 세종특별자치시</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>세종특별자치시</t>
+          <t>66</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
         <is>
           <t>103</t>
         </is>
@@ -2096,20 +1716,15 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 수원시장안구</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>수원시장안구</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
         <is>
           <t>121</t>
         </is>
@@ -2118,20 +1733,15 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 수원시권선구</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>수원시권선구</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
         <is>
           <t>120</t>
         </is>
@@ -2140,20 +1750,15 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 수원시팔달구</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>수원시팔달구</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
         <is>
           <t>121</t>
         </is>
@@ -2162,20 +1767,15 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 수원시영통구</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>수원시영통구</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
         <is>
           <t>120</t>
         </is>
@@ -2184,20 +1784,15 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 성남시수정구</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>성남시수정구</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -2206,20 +1801,15 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 성남시중원구</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>성남시중원구</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -2228,20 +1818,15 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 성남시분당구</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>성남시분당구</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
         <is>
           <t>123</t>
         </is>
@@ -2250,20 +1835,15 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 의정부시</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>의정부시</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
         <is>
           <t>130</t>
         </is>
@@ -2272,20 +1852,15 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 안양시만안구</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>안양시만안구</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
         <is>
           <t>123</t>
         </is>
@@ -2294,20 +1869,15 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 안양시동안구</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>안양시동안구</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
         <is>
           <t>123</t>
         </is>
@@ -2316,20 +1886,15 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 부천시원미구</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>부천시원미구</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
         <is>
           <t>125</t>
         </is>
@@ -2338,20 +1903,15 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 부천시소사구</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>부천시소사구</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
         <is>
           <t>125</t>
         </is>
@@ -2360,20 +1920,15 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 부천시오정구</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>부천시오정구</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
         <is>
           <t>126</t>
         </is>
@@ -2382,20 +1937,15 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 광명시</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>광명시</t>
+          <t>58</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
         <is>
           <t>125</t>
         </is>
@@ -2404,20 +1954,15 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 평택시</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>평택시</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
         <is>
           <t>114</t>
         </is>
@@ -2426,20 +1971,15 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 동두천시</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>동두천시</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
         <is>
           <t>134</t>
         </is>
@@ -2448,20 +1988,15 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 안산시상록구</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>안산시상록구</t>
+          <t>58</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
         <is>
           <t>121</t>
         </is>
@@ -2470,20 +2005,15 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 안산시단원구</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>안산시단원구</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
         <is>
           <t>121</t>
         </is>
@@ -2492,20 +2022,15 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 고양시덕양구</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>고양시덕양구</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
         <is>
           <t>128</t>
         </is>
@@ -2514,20 +2039,15 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 고양시일산동구</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>고양시일산동구</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
         <is>
           <t>129</t>
         </is>
@@ -2536,20 +2056,15 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 고양시일산서구</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>고양시일산서구</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
         <is>
           <t>129</t>
         </is>
@@ -2558,20 +2073,15 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 과천시</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>과천시</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
         <is>
           <t>124</t>
         </is>
@@ -2580,20 +2090,15 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 구리시</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>구리시</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
         <is>
           <t>127</t>
         </is>
@@ -2602,20 +2107,15 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 남양주시</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>남양주시</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
         <is>
           <t>128</t>
         </is>
@@ -2624,20 +2124,15 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 오산시</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>오산시</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
         <is>
           <t>118</t>
         </is>
@@ -2646,20 +2141,15 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 시흥시</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>시흥시</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
         <is>
           <t>123</t>
         </is>
@@ -2668,20 +2158,15 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 군포시</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>군포시</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
         <is>
           <t>122</t>
         </is>
@@ -2690,20 +2175,15 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 의왕시</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>의왕시</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
         <is>
           <t>122</t>
         </is>
@@ -2712,20 +2192,15 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 하남시</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>하남시</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
         <is>
           <t>126</t>
         </is>
@@ -2734,20 +2209,15 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 용인시처인구</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>용인시처인구</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
         <is>
           <t>119</t>
         </is>
@@ -2756,20 +2226,15 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 용인시기흥구</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>용인시기흥구</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
         <is>
           <t>120</t>
         </is>
@@ -2778,20 +2243,15 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 용인시수지구</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>용인시수지구</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
         <is>
           <t>121</t>
         </is>
@@ -2800,20 +2260,15 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 파주시</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>파주시</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
         <is>
           <t>131</t>
         </is>
@@ -2822,20 +2277,15 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 이천시</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>이천시</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
         <is>
           <t>121</t>
         </is>
@@ -2844,20 +2294,15 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 안성시</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>안성시</t>
+          <t>65</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
         <is>
           <t>115</t>
         </is>
@@ -2866,20 +2311,15 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 김포시</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>김포시</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
         <is>
           <t>128</t>
         </is>
@@ -2888,20 +2328,15 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 화성시</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>화성시</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
         <is>
           <t>119</t>
         </is>
@@ -2910,20 +2345,15 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 광주시</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>광주시</t>
+          <t>65</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
         <is>
           <t>123</t>
         </is>
@@ -2932,20 +2362,15 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 양주시</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>양주시</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
         <is>
           <t>131</t>
         </is>
@@ -2954,20 +2379,15 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 포천시</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>포천시</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
         <is>
           <t>134</t>
         </is>
@@ -2976,20 +2396,15 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 여주시</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>여주시</t>
+          <t>71</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
         <is>
           <t>121</t>
         </is>
@@ -2998,20 +2413,15 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 연천군</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>연천군</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
         <is>
           <t>138</t>
         </is>
@@ -3020,20 +2430,15 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 가평군</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>가평군</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
         <is>
           <t>133</t>
         </is>
@@ -3042,20 +2447,15 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경기도 양평군</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>양평군</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
         <is>
           <t>125</t>
         </is>
@@ -3064,20 +2464,15 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>충청북도 청주시상당구</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>청주시상당구</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
         <is>
           <t>106</t>
         </is>
@@ -3086,20 +2481,15 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>충청북도 청주시서원구</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>청주시서원구</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
         <is>
           <t>107</t>
         </is>
@@ -3108,20 +2498,15 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>충청북도 청주시흥덕구</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>청주시흥덕구</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
         <is>
           <t>106</t>
         </is>
@@ -3130,20 +2515,15 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>충청북도 청주시청원구</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>청주시청원구</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
         <is>
           <t>107</t>
         </is>
@@ -3152,20 +2532,15 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>충청북도 충주시</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>충주시</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
         <is>
           <t>114</t>
         </is>
@@ -3174,20 +2549,15 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>충청북도 제천시</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>제천시</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
         <is>
           <t>118</t>
         </is>
@@ -3196,20 +2566,15 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>충청북도 보은군</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>보은군</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
         <is>
           <t>103</t>
         </is>
@@ -3218,20 +2583,15 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>충청북도 옥천군</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>옥천군</t>
+          <t>71</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
         <is>
           <t>99</t>
         </is>
@@ -3240,20 +2600,15 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>충청북도 영동군</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>영동군</t>
+          <t>74</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
         <is>
           <t>97</t>
         </is>
@@ -3262,20 +2617,15 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>충청북도 증평군</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>증평군</t>
+          <t>71</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
         <is>
           <t>110</t>
         </is>
@@ -3284,20 +2634,15 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>충청북도 진천군</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>진천군</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
         <is>
           <t>111</t>
         </is>
@@ -3306,20 +2651,15 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>충청북도 괴산군</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>괴산군</t>
+          <t>74</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
         <is>
           <t>111</t>
         </is>
@@ -3328,20 +2668,15 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>충청북도 음성군</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>음성군</t>
+          <t>72</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
         <is>
           <t>113</t>
         </is>
@@ -3350,20 +2685,15 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>충청북도 단양군</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>단양군</t>
+          <t>84</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
         <is>
           <t>115</t>
         </is>
@@ -3372,20 +2702,15 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>충청남도 천안시동남구</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>천안시동남구</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
         <is>
           <t>110</t>
         </is>
@@ -3394,20 +2719,15 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>충청남도 천안시서북구</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>천안시서북구</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
         <is>
           <t>112</t>
         </is>
@@ -3416,20 +2736,15 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>충청남도 공주시</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>공주시</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
         <is>
           <t>102</t>
         </is>
@@ -3438,20 +2753,15 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>충청남도 보령시</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>보령시</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
         <is>
           <t>100</t>
         </is>
@@ -3460,20 +2770,15 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>충청남도 아산시</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>아산시</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
         <is>
           <t>110</t>
         </is>
@@ -3482,20 +2787,15 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>충청남도 서산시</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>서산시</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
         <is>
           <t>110</t>
         </is>
@@ -3504,20 +2804,15 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>충청남도 논산시</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>논산시</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
         <is>
           <t>97</t>
         </is>
@@ -3526,20 +2821,15 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>충청남도 계룡시</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>계룡시</t>
+          <t>65</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
         <is>
           <t>99</t>
         </is>
@@ -3548,20 +2838,15 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>충청남도 당진시</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>당진시</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
         <is>
           <t>112</t>
         </is>
@@ -3570,20 +2855,15 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>충청남도 금산군</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>금산군</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
         <is>
           <t>95</t>
         </is>
@@ -3592,20 +2872,15 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>충청남도 부여군</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>부여군</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
         <is>
           <t>99</t>
         </is>
@@ -3614,20 +2889,15 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>충청남도 서천군</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>서천군</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
         <is>
           <t>94</t>
         </is>
@@ -3636,20 +2906,15 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>충청남도 청양군</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>청양군</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
         <is>
           <t>103</t>
         </is>
@@ -3658,20 +2923,15 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>충청남도 홍성군</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>홍성군</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
         <is>
           <t>106</t>
         </is>
@@ -3680,20 +2940,15 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>충청남도 예산군</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>예산군</t>
+          <t>58</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
         <is>
           <t>107</t>
         </is>
@@ -3702,20 +2957,15 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>충청남도 태안군</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>태안군</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
         <is>
           <t>109</t>
         </is>
@@ -3724,20 +2974,15 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>전라북도</t>
+          <t>전라북도 전주시완산구</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>전주시완산구</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
         <is>
           <t>89</t>
         </is>
@@ -3746,20 +2991,15 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>전라북도</t>
+          <t>전라북도 전주시덕진구</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>전주시덕진구</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
         <is>
           <t>89</t>
         </is>
@@ -3768,20 +3008,15 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>전라북도</t>
+          <t>전라북도 군산시</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>군산시</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
         <is>
           <t>92</t>
         </is>
@@ -3790,20 +3025,15 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>전라북도</t>
+          <t>전라북도 익산시</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>익산시</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
         <is>
           <t>91</t>
         </is>
@@ -3812,20 +3042,15 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>전라북도</t>
+          <t>전라북도 정읍시</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>정읍시</t>
+          <t>58</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
         <is>
           <t>83</t>
         </is>
@@ -3834,20 +3059,15 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>전라북도</t>
+          <t>전라북도 남원시</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>남원시</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
         <is>
           <t>80</t>
         </is>
@@ -3856,20 +3076,15 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>전라북도</t>
+          <t>전라북도 김제시</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>김제시</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
         <is>
           <t>88</t>
         </is>
@@ -3878,20 +3093,15 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>전라북도</t>
+          <t>전라북도 완주군</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>완주군</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
         <is>
           <t>89</t>
         </is>
@@ -3900,20 +3110,15 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>전라북도</t>
+          <t>전라북도 진안군</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>진안군</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
         <is>
           <t>88</t>
         </is>
@@ -3922,20 +3127,15 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>전라북도</t>
+          <t>전라북도 무주군</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>무주군</t>
+          <t>72</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
         <is>
           <t>93</t>
         </is>
@@ -3944,20 +3144,15 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>전라북도</t>
+          <t>전라북도 장수군</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>장수군</t>
+          <t>70</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
         <is>
           <t>85</t>
         </is>
@@ -3966,20 +3161,15 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>전라북도</t>
+          <t>전라북도 임실군</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>임실군</t>
+          <t>66</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
         <is>
           <t>84</t>
         </is>
@@ -3988,20 +3178,15 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>전라북도</t>
+          <t>전라북도 순창군</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>순창군</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
         <is>
           <t>79</t>
         </is>
@@ -4010,20 +3195,15 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>전라북도</t>
+          <t>전라북도 고창군</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>고창군</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
         <is>
           <t>80</t>
         </is>
@@ -4032,20 +3212,15 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>전라북도</t>
+          <t>전라북도 부안군</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>부안군</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
         <is>
           <t>87</t>
         </is>
@@ -4054,20 +3229,15 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>전라남도 목포시</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>목포시</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
         <is>
           <t>67</t>
         </is>
@@ -4076,20 +3246,15 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>전라남도 여수시</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>여수시</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
         <is>
           <t>66</t>
         </is>
@@ -4098,20 +3263,15 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>전라남도 순천시</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>순천시</t>
+          <t>70</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
         <is>
           <t>70</t>
         </is>
@@ -4120,20 +3280,15 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>전라남도 나주시</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>나주시</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
         <is>
           <t>71</t>
         </is>
@@ -4142,20 +3297,15 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>전라남도 광양시</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>광양시</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
         <is>
           <t>70</t>
         </is>
@@ -4164,20 +3314,15 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>전라남도 담양군</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>담양군</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
         <is>
           <t>78</t>
         </is>
@@ -4186,20 +3331,15 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>전라남도 곡성군</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>곡성군</t>
+          <t>66</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
         <is>
           <t>77</t>
         </is>
@@ -4208,20 +3348,15 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>전라남도 구례군</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>구례군</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
         <is>
           <t>75</t>
         </is>
@@ -4230,20 +3365,15 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>전라남도 고흥군</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>고흥군</t>
+          <t>66</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
         <is>
           <t>62</t>
         </is>
@@ -4252,20 +3382,15 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>전라남도 보성군</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>보성군</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
         <is>
           <t>66</t>
         </is>
@@ -4274,20 +3399,15 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>전라남도 화순군</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>화순군</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
         <is>
           <t>72</t>
         </is>
@@ -4296,20 +3416,15 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>전라남도 장흥군</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>장흥군</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
         <is>
           <t>64</t>
         </is>
@@ -4318,20 +3433,15 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>전라남도 강진군</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>강진군</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
         <is>
           <t>63</t>
         </is>
@@ -4340,20 +3450,15 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>전라남도 해남군</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>해남군</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
         <is>
           <t>61</t>
         </is>
@@ -4362,20 +3467,15 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>전라남도 영암군</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>영암군</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
         <is>
           <t>66</t>
         </is>
@@ -4384,20 +3484,15 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>전라남도 무안군</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>무안군</t>
+          <t>52</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
         <is>
           <t>71</t>
         </is>
@@ -4406,20 +3501,15 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>전라남도 함평군</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>함평군</t>
+          <t>52</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
         <is>
           <t>72</t>
         </is>
@@ -4428,20 +3518,15 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>전라남도 영광군</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>영광군</t>
+          <t>52</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
         <is>
           <t>77</t>
         </is>
@@ -4450,20 +3535,15 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>전라남도 장성군</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>장성군</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
         <is>
           <t>77</t>
         </is>
@@ -4472,20 +3552,15 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>전라남도 완도군</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>완도군</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
         <is>
           <t>56</t>
         </is>
@@ -4494,20 +3569,15 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>전라남도 진도군</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>진도군</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
         <is>
           <t>59</t>
         </is>
@@ -4516,20 +3586,15 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>전라남도 신안군</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>신안군</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
         <is>
           <t>66</t>
         </is>
@@ -4538,20 +3603,15 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>경상북도 포항시남구</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>포항시남구</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
         <is>
           <t>94</t>
         </is>
@@ -4560,20 +3620,15 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>경상북도 포항시북구</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>포항시북구</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
         <is>
           <t>95</t>
         </is>
@@ -4582,20 +3637,15 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>경상북도 경주시</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>경주시</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
         <is>
           <t>91</t>
         </is>
@@ -4604,20 +3654,15 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>경상북도 김천시</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>김천시</t>
+          <t>80</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
         <is>
           <t>96</t>
         </is>
@@ -4626,20 +3671,15 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>경상북도 안동시</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>안동시</t>
+          <t>91</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
         <is>
           <t>106</t>
         </is>
@@ -4648,20 +3688,15 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>경상북도 구미시</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>구미시</t>
+          <t>84</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
         <is>
           <t>96</t>
         </is>
@@ -4670,20 +3705,15 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>경상북도 영주시</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>영주시</t>
+          <t>89</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
         <is>
           <t>111</t>
         </is>
@@ -4692,20 +3722,15 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>경상북도 영천시</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>영천시</t>
+          <t>95</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
         <is>
           <t>93</t>
         </is>
@@ -4714,20 +3739,15 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>경상북도 상주시</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>상주시</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
         <is>
           <t>102</t>
         </is>
@@ -4736,20 +3756,15 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>경상북도 문경시</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>문경시</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
         <is>
           <t>106</t>
         </is>
@@ -4758,20 +3773,15 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>경상북도 경산시</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>경산시</t>
+          <t>91</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
         <is>
           <t>90</t>
         </is>
@@ -4780,20 +3790,15 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>경상북도 의성군</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>의성군</t>
+          <t>90</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
         <is>
           <t>101</t>
         </is>
@@ -4802,20 +3807,15 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>경상북도 청송군</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>청송군</t>
+          <t>96</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
         <is>
           <t>103</t>
         </is>
@@ -4824,20 +3824,15 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>경상북도 영양군</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>영양군</t>
+          <t>97</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
         <is>
           <t>108</t>
         </is>
@@ -4846,20 +3841,15 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>경상북도 영덕군</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>영덕군</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
         <is>
           <t>103</t>
         </is>
@@ -4868,20 +3858,15 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>경상북도 청도군</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>청도군</t>
+          <t>91</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
         <is>
           <t>86</t>
         </is>
@@ -4890,20 +3875,15 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>경상북도 고령군</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>고령군</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
         <is>
           <t>87</t>
         </is>
@@ -4912,20 +3892,15 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>경상북도 성주군</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>성주군</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
         <is>
           <t>91</t>
         </is>
@@ -4934,20 +3909,15 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>경상북도 칠곡군</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>칠곡군</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
         <is>
           <t>93</t>
         </is>
@@ -4956,20 +3926,15 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>경상북도 예천군</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>예천군</t>
+          <t>86</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
         <is>
           <t>107</t>
         </is>
@@ -4978,20 +3943,15 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>경상북도 봉화군</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>봉화군</t>
+          <t>90</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
         <is>
           <t>113</t>
         </is>
@@ -5000,20 +3960,15 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>경상북도 울진군</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>울진군</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
         <is>
           <t>115</t>
         </is>
@@ -5022,20 +3977,15 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>경상북도 울릉군</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>울릉군</t>
+          <t>127</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
         <is>
           <t>127</t>
         </is>
@@ -5044,20 +3994,15 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>경상남도 창원시의창구</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>창원시의창구</t>
+          <t>90</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
         <is>
           <t>77</t>
         </is>
@@ -5066,20 +4011,15 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>경상남도 창원시성산구</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>창원시성산구</t>
+          <t>91</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
         <is>
           <t>76</t>
         </is>
@@ -5088,20 +4028,15 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>경상남도 창원시마산합포구</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>창원시마산합포구</t>
+          <t>89</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
         <is>
           <t>76</t>
         </is>
@@ -5110,20 +4045,15 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>경상남도 창원시마산회원구</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>창원시마산회원구</t>
+          <t>89</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
         <is>
           <t>76</t>
         </is>
@@ -5132,20 +4062,15 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>경상남도 창원시진해구</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>창원시진해구</t>
+          <t>91</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
         <is>
           <t>75</t>
         </is>
@@ -5154,20 +4079,15 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>경상남도 진주시</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>진주시</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
         <is>
           <t>75</t>
         </is>
@@ -5176,20 +4096,15 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>경상남도 통영시</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>통영시</t>
+          <t>87</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
         <is>
           <t>68</t>
         </is>
@@ -5198,20 +4113,15 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>경상남도 사천시</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>사천시</t>
+          <t>80</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
         <is>
           <t>71</t>
         </is>
@@ -5220,20 +4130,15 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>경상남도 김해시</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>김해시</t>
+          <t>95</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
         <is>
           <t>77</t>
         </is>
@@ -5242,20 +4147,15 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>경상남도 밀양시</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>밀양시</t>
+          <t>92</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
         <is>
           <t>83</t>
         </is>
@@ -5264,20 +4164,15 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>경상남도 거제시</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>거제시</t>
+          <t>90</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
         <is>
           <t>69</t>
         </is>
@@ -5286,20 +4181,15 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>경상남도 양산시</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>양산시</t>
+          <t>97</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
         <is>
           <t>79</t>
         </is>
@@ -5308,20 +4198,15 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>경상남도 의령군</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>의령군</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
         <is>
           <t>78</t>
         </is>
@@ -5330,20 +4215,15 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>경상남도 함안군</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>함안군</t>
+          <t>86</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
         <is>
           <t>77</t>
         </is>
@@ -5352,20 +4232,15 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>경상남도 창녕군</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>창녕군</t>
+          <t>87</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
         <is>
           <t>83</t>
         </is>
@@ -5374,20 +4249,15 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>경상남도 고성군</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>고성군</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
         <is>
           <t>71</t>
         </is>
@@ -5396,20 +4266,15 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>경상남도 남해군</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>남해군</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
         <is>
           <t>68</t>
         </is>
@@ -5418,20 +4283,15 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>경상남도 하동군</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>하동군</t>
+          <t>74</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
         <is>
           <t>73</t>
         </is>
@@ -5440,20 +4300,15 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>경상남도 산청군</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>산청군</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
         <is>
           <t>80</t>
         </is>
@@ -5462,20 +4317,15 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>경상남도 함양군</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>함양군</t>
+          <t>74</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
         <is>
           <t>82</t>
         </is>
@@ -5484,20 +4334,15 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>경상남도 거창군</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>거창군</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
         <is>
           <t>86</t>
         </is>
@@ -5506,20 +4351,15 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>경상남도 합천군</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>합천군</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
         <is>
           <t>84</t>
         </is>
@@ -5528,20 +4368,15 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>제주특별자치도</t>
+          <t>제주특별자치도 제주시</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>제주시</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
         <is>
           <t>38</t>
         </is>
@@ -5550,20 +4385,15 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>제주특별자치도</t>
+          <t>제주특별자치도 서귀포시</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>서귀포시</t>
+          <t>52</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
         <is>
           <t>33</t>
         </is>
@@ -5572,20 +4402,15 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>강원특별자치도</t>
+          <t>강원특별자치도 춘천시</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>춘천시</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
         <is>
           <t>134</t>
         </is>
@@ -5594,20 +4419,15 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>강원특별자치도</t>
+          <t>강원특별자치도 원주시</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>원주시</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
         <is>
           <t>122</t>
         </is>
@@ -5616,20 +4436,15 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>강원특별자치도</t>
+          <t>강원특별자치도 강릉시</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>강릉시</t>
+          <t>92</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
         <is>
           <t>131</t>
         </is>
@@ -5638,20 +4453,15 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>강원특별자치도</t>
+          <t>강원특별자치도 동해시</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>동해시</t>
+          <t>97</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
         <is>
           <t>127</t>
         </is>
@@ -5660,20 +4470,15 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>강원특별자치도</t>
+          <t>강원특별자치도 태백시</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>태백시</t>
+          <t>95</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
         <is>
           <t>119</t>
         </is>
@@ -5682,20 +4487,15 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>강원특별자치도</t>
+          <t>강원특별자치도 속초시</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>속초시</t>
+          <t>87</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
         <is>
           <t>141</t>
         </is>
@@ -5704,20 +4504,15 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>강원특별자치도</t>
+          <t>강원특별자치도 삼척시</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>삼척시</t>
+          <t>98</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
         <is>
           <t>125</t>
         </is>
@@ -5726,20 +4521,15 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>강원특별자치도</t>
+          <t>강원특별자치도 홍천군</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>홍천군</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
         <is>
           <t>130</t>
         </is>
@@ -5748,20 +4538,15 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>강원특별자치도</t>
+          <t>강원특별자치도 횡성군</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>횡성군</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
         <is>
           <t>125</t>
         </is>
@@ -5770,20 +4555,15 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>강원특별자치도</t>
+          <t>강원특별자치도 영월군</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>영월군</t>
+          <t>86</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
         <is>
           <t>119</t>
         </is>
@@ -5792,20 +4572,15 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>강원특별자치도</t>
+          <t>강원특별자치도 평창군</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>평창군</t>
+          <t>84</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
         <is>
           <t>123</t>
         </is>
@@ -5814,20 +4589,15 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>강원특별자치도</t>
+          <t>강원특별자치도 정선군</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>정선군</t>
+          <t>89</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
         <is>
           <t>123</t>
         </is>
@@ -5836,20 +4606,15 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>강원특별자치도</t>
+          <t>강원특별자치도 철원군</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>철원군</t>
+          <t>65</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
         <is>
           <t>139</t>
         </is>
@@ -5858,20 +4623,15 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>강원특별자치도</t>
+          <t>강원특별자치도 화천군</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>화천군</t>
+          <t>72</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
         <is>
           <t>139</t>
         </is>
@@ -5880,20 +4640,15 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>강원특별자치도</t>
+          <t>강원특별자치도 양구군</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>양구군</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
         <is>
           <t>139</t>
         </is>
@@ -5902,20 +4657,15 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>강원특별자치도</t>
+          <t>강원특별자치도 인제군</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>인제군</t>
+          <t>80</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr">
         <is>
           <t>138</t>
         </is>
@@ -5924,20 +4674,15 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>강원특별자치도</t>
+          <t>강원특별자치도 고성군</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>고성군</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr">
         <is>
           <t>145</t>
         </is>
@@ -5946,20 +4691,15 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>강원특별자치도</t>
+          <t>강원특별자치도 양양군</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>양양군</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr">
         <is>
           <t>138</t>
         </is>
